--- a/resources/experiment 2/metrics/R2/incidence/Amputación extremidades inferiores (INC).xlsx
+++ b/resources/experiment 2/metrics/R2/incidence/Amputación extremidades inferiores (INC).xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.958542157983504</v>
+        <v>0.9974789578434095</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9585421359550851</v>
+        <v>0.9976746246971326</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9585421359550851</v>
+        <v>0.9730274753669037</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9986436858229654</v>
+        <v>0.9958856148886301</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9986436848325839</v>
+        <v>0.9964575028674818</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9986436848325839</v>
+        <v>0.9314450610255703</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8719682081868706</v>
+        <v>0.9985529337222276</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8719682081868706</v>
+        <v>0.9983192370639756</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8719682081868706</v>
+        <v>0.9959504334631312</v>
       </c>
     </row>
   </sheetData>
